--- a/out/results_2024-03-02.xlsx
+++ b/out/results_2024-03-02.xlsx
@@ -14,7 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="196">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Time(s)</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Vars</t>
+  </si>
+  <si>
+    <t>Cls</t>
+  </si>
   <si>
     <t>3-2-2</t>
   </si>
@@ -466,25 +487,121 @@
     <t>184.297</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Time(s)</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Vars</t>
-  </si>
-  <si>
-    <t>Cls</t>
+    <t>PyCSP</t>
+  </si>
+  <si>
+    <t>2.696</t>
+  </si>
+  <si>
+    <t>1.801</t>
+  </si>
+  <si>
+    <t>2.618</t>
+  </si>
+  <si>
+    <t>5.247</t>
+  </si>
+  <si>
+    <t>3.201</t>
+  </si>
+  <si>
+    <t>2.627</t>
+  </si>
+  <si>
+    <t>4.170</t>
+  </si>
+  <si>
+    <t>3.609</t>
+  </si>
+  <si>
+    <t>5.294</t>
+  </si>
+  <si>
+    <t>5.166</t>
+  </si>
+  <si>
+    <t>3.876</t>
+  </si>
+  <si>
+    <t>2.971</t>
+  </si>
+  <si>
+    <t>3.215</t>
+  </si>
+  <si>
+    <t>12.643</t>
+  </si>
+  <si>
+    <t>4.705</t>
+  </si>
+  <si>
+    <t>3.238</t>
+  </si>
+  <si>
+    <t>4.823</t>
+  </si>
+  <si>
+    <t>8.952</t>
+  </si>
+  <si>
+    <t>4.927</t>
+  </si>
+  <si>
+    <t>3.120</t>
+  </si>
+  <si>
+    <t>6.984</t>
+  </si>
+  <si>
+    <t>5.931</t>
+  </si>
+  <si>
+    <t>8.367</t>
+  </si>
+  <si>
+    <t>14.379</t>
+  </si>
+  <si>
+    <t>5.141</t>
+  </si>
+  <si>
+    <t>5.107</t>
+  </si>
+  <si>
+    <t>7.924</t>
+  </si>
+  <si>
+    <t>7.453</t>
+  </si>
+  <si>
+    <t>10.488</t>
+  </si>
+  <si>
+    <t>1.552</t>
+  </si>
+  <si>
+    <t>2.286</t>
+  </si>
+  <si>
+    <t>3.225</t>
+  </si>
+  <si>
+    <t>3.498</t>
+  </si>
+  <si>
+    <t>1.898</t>
+  </si>
+  <si>
+    <t>2.487</t>
+  </si>
+  <si>
+    <t>3.094</t>
+  </si>
+  <si>
+    <t>186.158</t>
+  </si>
+  <si>
+    <t>7.556</t>
   </si>
 </sst>
 </file>
@@ -821,35 +938,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J255" sqref="J255"/>
+      <selection activeCell="E248" sqref="E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -857,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>72</v>
@@ -880,16 +997,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>240</v>
@@ -903,16 +1020,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>432</v>
@@ -926,16 +1043,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>560</v>
@@ -949,16 +1066,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>1080</v>
@@ -972,16 +1089,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>1600</v>
@@ -995,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>1848</v>
@@ -1018,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>2646</v>
@@ -1041,16 +1158,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>2912</v>
@@ -1064,16 +1181,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>4500</v>
@@ -1087,16 +1204,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>3528</v>
@@ -1110,16 +1227,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>3240</v>
@@ -1133,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F14">
         <v>4536</v>
@@ -1156,16 +1273,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>4320</v>
@@ -1179,16 +1296,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>5376</v>
@@ -1202,16 +1319,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <v>5400</v>
@@ -1225,16 +1342,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>7000</v>
@@ -1248,16 +1365,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>6120</v>
@@ -1271,16 +1388,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>8064</v>
@@ -1294,16 +1411,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F21">
         <v>6750</v>
@@ -1317,16 +1434,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>8100</v>
@@ -1340,16 +1457,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>8640</v>
@@ -1363,16 +1480,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>7920</v>
@@ -1386,16 +1503,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>8360</v>
@@ -1409,16 +1526,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <v>9720</v>
@@ -1432,16 +1549,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F27">
         <v>8800</v>
@@ -1455,16 +1572,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F28">
         <v>14112</v>
@@ -1478,16 +1595,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F29">
         <v>13750</v>
@@ -1501,16 +1618,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>17640</v>
@@ -1524,16 +1641,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>60</v>
@@ -1547,16 +1664,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>540</v>
@@ -1570,16 +1687,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>960</v>
@@ -1593,16 +1710,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>1500</v>
@@ -1616,16 +1733,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>2160</v>
@@ -1639,16 +1756,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>160</v>
@@ -1662,16 +1779,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>640</v>
@@ -1685,16 +1802,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>1440</v>
@@ -1708,16 +1825,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>2560</v>
@@ -1731,16 +1848,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F40">
         <v>4000</v>
@@ -1754,16 +1871,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>5760</v>
@@ -1777,16 +1894,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>2940</v>
@@ -1800,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>7840</v>
@@ -1823,16 +1940,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>10240</v>
@@ -1846,16 +1963,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F45">
         <v>12960</v>
@@ -1869,16 +1986,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F46">
         <v>16000</v>
@@ -1892,16 +2009,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <v>6480</v>
@@ -1915,16 +2032,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <v>8820</v>
@@ -1938,16 +2055,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>11520</v>
@@ -1961,16 +2078,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F50">
         <v>14580</v>
@@ -1984,16 +2101,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F51">
         <v>18000</v>
@@ -2007,16 +2124,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>432</v>
@@ -2030,16 +2147,16 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>652</v>
@@ -2053,16 +2170,16 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F54">
         <v>943</v>
@@ -2076,16 +2193,16 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F55">
         <v>872</v>
@@ -2099,16 +2216,16 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F56">
         <v>1092</v>
@@ -2122,16 +2239,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>1654</v>
@@ -2145,16 +2262,16 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F58">
         <v>1848</v>
@@ -2168,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <v>2646</v>
@@ -2191,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>2912</v>
@@ -2214,16 +2331,16 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>4500</v>
@@ -2237,16 +2354,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F62">
         <v>3528</v>
@@ -2260,16 +2377,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>3240</v>
@@ -2283,16 +2400,16 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F64">
         <v>4536</v>
@@ -2306,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>4320</v>
@@ -2329,16 +2446,16 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>5376</v>
@@ -2352,16 +2469,16 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F67">
         <v>5400</v>
@@ -2375,16 +2492,16 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F68">
         <v>7000</v>
@@ -2398,16 +2515,16 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F69">
         <v>6120</v>
@@ -2421,16 +2538,16 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F70">
         <v>8064</v>
@@ -2444,16 +2561,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F71">
         <v>6750</v>
@@ -2467,16 +2584,16 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>8100</v>
@@ -2490,16 +2607,16 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>8640</v>
@@ -2513,16 +2630,16 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F74">
         <v>7920</v>
@@ -2536,16 +2653,16 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F75">
         <v>8360</v>
@@ -2559,16 +2676,16 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F76">
         <v>9720</v>
@@ -2582,16 +2699,16 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F77">
         <v>8800</v>
@@ -2605,16 +2722,16 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F78">
         <v>14112</v>
@@ -2628,16 +2745,16 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F79">
         <v>13750</v>
@@ -2651,16 +2768,16 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F80">
         <v>17640</v>
@@ -2674,16 +2791,16 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F81">
         <v>351</v>
@@ -2697,16 +2814,16 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F82">
         <v>953</v>
@@ -2720,16 +2837,16 @@
         <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F83">
         <v>1254</v>
@@ -2743,16 +2860,16 @@
         <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E84" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F84">
         <v>1555</v>
@@ -2766,16 +2883,16 @@
         <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E85" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F85">
         <v>2160</v>
@@ -2789,16 +2906,16 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F86">
         <v>481</v>
@@ -2812,16 +2929,16 @@
         <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F87">
         <v>882</v>
@@ -2835,16 +2952,16 @@
         <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F88">
         <v>1440</v>
@@ -2858,16 +2975,16 @@
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>2560</v>
@@ -2881,16 +2998,16 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F90">
         <v>4000</v>
@@ -2904,16 +3021,16 @@
         <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F91">
         <v>5760</v>
@@ -2927,16 +3044,16 @@
         <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D92" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E92" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F92">
         <v>2940</v>
@@ -2950,16 +3067,16 @@
         <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F93">
         <v>7840</v>
@@ -2973,16 +3090,16 @@
         <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F94">
         <v>10240</v>
@@ -2996,16 +3113,16 @@
         <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F95">
         <v>12960</v>
@@ -3019,16 +3136,16 @@
         <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F96">
         <v>16000</v>
@@ -3042,16 +3159,16 @@
         <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F97">
         <v>6480</v>
@@ -3065,16 +3182,16 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F98">
         <v>8820</v>
@@ -3088,16 +3205,16 @@
         <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F99">
         <v>11520</v>
@@ -3111,16 +3228,16 @@
         <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E100" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F100">
         <v>14580</v>
@@ -3134,16 +3251,16 @@
         <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C101" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F101">
         <v>18000</v>
@@ -3157,16 +3274,16 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F102">
         <v>431</v>
@@ -3180,16 +3297,16 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F103">
         <v>651</v>
@@ -3203,16 +3320,16 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F104">
         <v>942</v>
@@ -3226,16 +3343,16 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F105">
         <v>871</v>
@@ -3249,16 +3366,16 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F106">
         <v>1091</v>
@@ -3272,16 +3389,16 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E107" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F107">
         <v>1653</v>
@@ -3295,16 +3412,16 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F108">
         <v>1848</v>
@@ -3318,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E109" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F109">
         <v>2646</v>
@@ -3341,16 +3458,16 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E110" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F110">
         <v>2912</v>
@@ -3364,16 +3481,16 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F111">
         <v>4500</v>
@@ -3387,16 +3504,16 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F112">
         <v>3528</v>
@@ -3410,16 +3527,16 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F113">
         <v>3240</v>
@@ -3433,16 +3550,16 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F114">
         <v>4536</v>
@@ -3456,16 +3573,16 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F115">
         <v>4320</v>
@@ -3479,16 +3596,16 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F116">
         <v>5376</v>
@@ -3502,16 +3619,16 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F117">
         <v>5400</v>
@@ -3525,16 +3642,16 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F118">
         <v>7000</v>
@@ -3548,16 +3665,16 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E119" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F119">
         <v>6120</v>
@@ -3571,16 +3688,16 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F120">
         <v>8064</v>
@@ -3594,16 +3711,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F121">
         <v>6750</v>
@@ -3617,16 +3734,16 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E122" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F122">
         <v>8100</v>
@@ -3640,16 +3757,16 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F123">
         <v>8640</v>
@@ -3663,16 +3780,16 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F124">
         <v>7920</v>
@@ -3686,16 +3803,16 @@
         <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C125" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D125" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F125">
         <v>8360</v>
@@ -3709,16 +3826,16 @@
         <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F126">
         <v>9720</v>
@@ -3732,16 +3849,16 @@
         <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C127" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F127">
         <v>8800</v>
@@ -3755,16 +3872,16 @@
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F128">
         <v>14112</v>
@@ -3778,16 +3895,16 @@
         <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C129" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F129">
         <v>13750</v>
@@ -3801,16 +3918,16 @@
         <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F130">
         <v>17640</v>
@@ -3824,16 +3941,16 @@
         <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D131" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F131">
         <v>349</v>
@@ -3847,16 +3964,16 @@
         <v>31</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C132" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D132" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E132" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F132">
         <v>952</v>
@@ -3870,16 +3987,16 @@
         <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D133" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E133" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F133">
         <v>1253</v>
@@ -3893,16 +4010,16 @@
         <v>33</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D134" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E134" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F134">
         <v>1554</v>
@@ -3916,16 +4033,16 @@
         <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C135" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D135" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E135" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F135">
         <v>2160</v>
@@ -3939,16 +4056,16 @@
         <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C136" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D136" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F136">
         <v>479</v>
@@ -3962,16 +4079,16 @@
         <v>36</v>
       </c>
       <c r="B137" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C137" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D137" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F137">
         <v>881</v>
@@ -3985,16 +4102,16 @@
         <v>37</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D138" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E138" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F138">
         <v>1440</v>
@@ -4008,16 +4125,16 @@
         <v>38</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C139" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D139" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E139" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F139">
         <v>2560</v>
@@ -4031,16 +4148,16 @@
         <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C140" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F140">
         <v>4000</v>
@@ -4054,16 +4171,16 @@
         <v>40</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C141" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F141">
         <v>5760</v>
@@ -4077,16 +4194,16 @@
         <v>41</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C142" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D142" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E142" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F142">
         <v>2940</v>
@@ -4100,16 +4217,16 @@
         <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C143" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F143">
         <v>7840</v>
@@ -4123,16 +4240,16 @@
         <v>43</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F144">
         <v>10240</v>
@@ -4146,16 +4263,16 @@
         <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C145" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F145">
         <v>12960</v>
@@ -4169,16 +4286,16 @@
         <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C146" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D146" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F146">
         <v>16000</v>
@@ -4192,16 +4309,16 @@
         <v>46</v>
       </c>
       <c r="B147" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F147">
         <v>6480</v>
@@ -4215,16 +4332,16 @@
         <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C148" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D148" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F148">
         <v>8820</v>
@@ -4238,16 +4355,16 @@
         <v>48</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C149" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F149">
         <v>11520</v>
@@ -4261,16 +4378,16 @@
         <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C150" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F150">
         <v>14580</v>
@@ -4284,16 +4401,16 @@
         <v>50</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C151" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F151">
         <v>18000</v>
@@ -4307,16 +4424,16 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D152" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F152">
         <v>72</v>
@@ -4330,16 +4447,16 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D153" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F153">
         <v>240</v>
@@ -4353,16 +4470,16 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D154" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F154">
         <v>432</v>
@@ -4376,16 +4493,16 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F155">
         <v>560</v>
@@ -4399,16 +4516,16 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F156">
         <v>1080</v>
@@ -4422,16 +4539,16 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D157" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E157" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F157">
         <v>1600</v>
@@ -4445,16 +4562,16 @@
         <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D158" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E158" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F158">
         <v>1848</v>
@@ -4468,16 +4585,16 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D159" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E159" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F159">
         <v>2646</v>
@@ -4491,16 +4608,16 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D160" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E160" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F160">
         <v>2912</v>
@@ -4514,16 +4631,16 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D161" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E161" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F161">
         <v>4500</v>
@@ -4537,16 +4654,16 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F162">
         <v>3528</v>
@@ -4560,16 +4677,16 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E163" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F163">
         <v>3240</v>
@@ -4583,16 +4700,16 @@
         <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C164" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E164" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F164">
         <v>4536</v>
@@ -4606,16 +4723,16 @@
         <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C165" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D165" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E165" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F165">
         <v>4320</v>
@@ -4629,16 +4746,16 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D166" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E166" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F166">
         <v>5376</v>
@@ -4652,16 +4769,16 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C167" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D167" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E167" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F167">
         <v>5400</v>
@@ -4675,16 +4792,16 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C168" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F168">
         <v>7000</v>
@@ -4698,16 +4815,16 @@
         <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D169" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E169" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F169">
         <v>6120</v>
@@ -4721,16 +4838,16 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E170" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F170">
         <v>8064</v>
@@ -4744,16 +4861,16 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C171" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D171" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E171" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F171">
         <v>6750</v>
@@ -4767,16 +4884,16 @@
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C172" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E172" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F172">
         <v>8100</v>
@@ -4790,16 +4907,16 @@
         <v>22</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C173" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D173" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E173" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F173">
         <v>8640</v>
@@ -4813,16 +4930,16 @@
         <v>23</v>
       </c>
       <c r="B174" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C174" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D174" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E174" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F174">
         <v>7920</v>
@@ -4836,16 +4953,16 @@
         <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C175" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D175" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E175" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F175">
         <v>8360</v>
@@ -4859,16 +4976,16 @@
         <v>25</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C176" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E176" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F176">
         <v>9720</v>
@@ -4882,16 +4999,16 @@
         <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C177" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D177" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E177" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F177">
         <v>8800</v>
@@ -4905,16 +5022,16 @@
         <v>27</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C178" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D178" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E178" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F178">
         <v>14112</v>
@@ -4928,16 +5045,16 @@
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C179" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F179">
         <v>13750</v>
@@ -4951,16 +5068,16 @@
         <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C180" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D180" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E180" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F180">
         <v>17640</v>
@@ -4974,16 +5091,16 @@
         <v>30</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C181" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D181" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F181">
         <v>60</v>
@@ -4997,16 +5114,16 @@
         <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C182" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D182" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E182" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F182">
         <v>540</v>
@@ -5020,16 +5137,16 @@
         <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C183" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D183" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E183" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F183">
         <v>960</v>
@@ -5043,16 +5160,16 @@
         <v>33</v>
       </c>
       <c r="B184" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C184" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D184" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E184" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F184">
         <v>1500</v>
@@ -5066,16 +5183,16 @@
         <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C185" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D185" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E185" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F185">
         <v>2160</v>
@@ -5089,16 +5206,16 @@
         <v>35</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C186" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D186" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F186">
         <v>160</v>
@@ -5112,16 +5229,16 @@
         <v>36</v>
       </c>
       <c r="B187" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C187" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D187" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E187" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F187">
         <v>640</v>
@@ -5135,16 +5252,16 @@
         <v>37</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D188" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E188" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F188">
         <v>1440</v>
@@ -5158,16 +5275,16 @@
         <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C189" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D189" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E189" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F189">
         <v>2560</v>
@@ -5181,16 +5298,16 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C190" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D190" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F190">
         <v>4000</v>
@@ -5204,16 +5321,16 @@
         <v>40</v>
       </c>
       <c r="B191" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C191" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F191">
         <v>5760</v>
@@ -5227,16 +5344,16 @@
         <v>41</v>
       </c>
       <c r="B192" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C192" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D192" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E192" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F192">
         <v>2940</v>
@@ -5250,16 +5367,16 @@
         <v>42</v>
       </c>
       <c r="B193" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C193" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D193" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E193" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F193">
         <v>7840</v>
@@ -5273,16 +5390,16 @@
         <v>43</v>
       </c>
       <c r="B194" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C194" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D194" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E194" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F194">
         <v>10240</v>
@@ -5296,16 +5413,16 @@
         <v>44</v>
       </c>
       <c r="B195" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C195" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D195" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F195">
         <v>12960</v>
@@ -5319,16 +5436,16 @@
         <v>45</v>
       </c>
       <c r="B196" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C196" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D196" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E196" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F196">
         <v>16000</v>
@@ -5342,16 +5459,16 @@
         <v>46</v>
       </c>
       <c r="B197" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C197" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D197" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F197">
         <v>6480</v>
@@ -5365,16 +5482,16 @@
         <v>47</v>
       </c>
       <c r="B198" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C198" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E198" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F198">
         <v>8820</v>
@@ -5388,16 +5505,16 @@
         <v>48</v>
       </c>
       <c r="B199" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C199" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F199">
         <v>11520</v>
@@ -5411,16 +5528,16 @@
         <v>49</v>
       </c>
       <c r="B200" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C200" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F200">
         <v>14580</v>
@@ -5434,16 +5551,16 @@
         <v>50</v>
       </c>
       <c r="B201" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C201" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D201" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E201" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F201">
         <v>18000</v>
@@ -5457,16 +5574,16 @@
         <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D202" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F202">
         <v>72</v>
@@ -5480,16 +5597,16 @@
         <v>2</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D203" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F203">
         <v>240</v>
@@ -5503,16 +5620,16 @@
         <v>3</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D204" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F204">
         <v>432</v>
@@ -5526,16 +5643,16 @@
         <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C205" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D205" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F205">
         <v>560</v>
@@ -5549,16 +5666,16 @@
         <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D206" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F206">
         <v>1080</v>
@@ -5572,16 +5689,16 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C207" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D207" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E207" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F207">
         <v>1600</v>
@@ -5595,16 +5712,16 @@
         <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C208" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D208" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E208" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F208">
         <v>1848</v>
@@ -5618,16 +5735,16 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C209" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D209" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E209" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F209">
         <v>2646</v>
@@ -5641,16 +5758,16 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C210" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D210" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E210" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F210">
         <v>2912</v>
@@ -5664,16 +5781,16 @@
         <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C211" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D211" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E211" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F211">
         <v>4500</v>
@@ -5687,16 +5804,16 @@
         <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D212" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E212" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F212">
         <v>3528</v>
@@ -5710,16 +5827,16 @@
         <v>12</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C213" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D213" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E213" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F213">
         <v>3240</v>
@@ -5733,16 +5850,16 @@
         <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C214" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D214" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E214" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F214">
         <v>4536</v>
@@ -5756,16 +5873,16 @@
         <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C215" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D215" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E215" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F215">
         <v>4320</v>
@@ -5779,16 +5896,16 @@
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C216" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D216" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E216" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F216">
         <v>5376</v>
@@ -5802,16 +5919,16 @@
         <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C217" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D217" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E217" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F217">
         <v>5400</v>
@@ -5825,16 +5942,16 @@
         <v>17</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F218">
         <v>7000</v>
@@ -5848,16 +5965,16 @@
         <v>18</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C219" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D219" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E219" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F219">
         <v>6120</v>
@@ -5871,16 +5988,16 @@
         <v>19</v>
       </c>
       <c r="B220" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C220" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D220" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E220" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F220">
         <v>8064</v>
@@ -5894,16 +6011,16 @@
         <v>20</v>
       </c>
       <c r="B221" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C221" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D221" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E221" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F221">
         <v>6750</v>
@@ -5917,16 +6034,16 @@
         <v>21</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C222" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D222" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E222" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F222">
         <v>8100</v>
@@ -5940,16 +6057,16 @@
         <v>22</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C223" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D223" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E223" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F223">
         <v>8640</v>
@@ -5963,16 +6080,16 @@
         <v>23</v>
       </c>
       <c r="B224" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C224" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D224" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E224" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F224">
         <v>7920</v>
@@ -5986,16 +6103,16 @@
         <v>24</v>
       </c>
       <c r="B225" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C225" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D225" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E225" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F225">
         <v>8360</v>
@@ -6009,16 +6126,16 @@
         <v>25</v>
       </c>
       <c r="B226" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C226" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E226" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F226">
         <v>9720</v>
@@ -6032,16 +6149,16 @@
         <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C227" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E227" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F227">
         <v>8800</v>
@@ -6055,16 +6172,16 @@
         <v>27</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C228" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D228" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E228" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F228">
         <v>14112</v>
@@ -6078,16 +6195,16 @@
         <v>28</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C229" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D229" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E229" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F229">
         <v>13750</v>
@@ -6101,16 +6218,16 @@
         <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C230" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F230">
         <v>17640</v>
@@ -6124,16 +6241,16 @@
         <v>30</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C231" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D231" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E231" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F231">
         <v>60</v>
@@ -6147,16 +6264,16 @@
         <v>31</v>
       </c>
       <c r="B232" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C232" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D232" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E232" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F232">
         <v>540</v>
@@ -6170,16 +6287,16 @@
         <v>32</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C233" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D233" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E233" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F233">
         <v>960</v>
@@ -6193,16 +6310,16 @@
         <v>33</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C234" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D234" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E234" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F234">
         <v>1500</v>
@@ -6216,16 +6333,16 @@
         <v>34</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C235" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D235" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E235" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F235">
         <v>2160</v>
@@ -6239,16 +6356,16 @@
         <v>35</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C236" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D236" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F236">
         <v>160</v>
@@ -6262,16 +6379,16 @@
         <v>36</v>
       </c>
       <c r="B237" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C237" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E237" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F237">
         <v>640</v>
@@ -6285,16 +6402,16 @@
         <v>37</v>
       </c>
       <c r="B238" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C238" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D238" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E238" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F238">
         <v>1440</v>
@@ -6308,16 +6425,16 @@
         <v>38</v>
       </c>
       <c r="B239" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C239" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D239" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E239" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F239">
         <v>2560</v>
@@ -6331,16 +6448,16 @@
         <v>39</v>
       </c>
       <c r="B240" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C240" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D240" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E240" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F240">
         <v>4000</v>
@@ -6354,16 +6471,16 @@
         <v>40</v>
       </c>
       <c r="B241" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C241" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D241" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E241" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F241">
         <v>5760</v>
@@ -6377,16 +6494,16 @@
         <v>41</v>
       </c>
       <c r="B242" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C242" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D242" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E242" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F242">
         <v>2940</v>
@@ -6400,16 +6517,16 @@
         <v>42</v>
       </c>
       <c r="B243" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C243" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E243" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F243">
         <v>7840</v>
@@ -6423,16 +6540,16 @@
         <v>43</v>
       </c>
       <c r="B244" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C244" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E244" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F244">
         <v>10240</v>
@@ -6446,16 +6563,16 @@
         <v>44</v>
       </c>
       <c r="B245" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C245" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D245" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E245" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F245">
         <v>12960</v>
@@ -6469,16 +6586,16 @@
         <v>45</v>
       </c>
       <c r="B246" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C246" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D246" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E246" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F246">
         <v>16000</v>
@@ -6492,16 +6609,16 @@
         <v>46</v>
       </c>
       <c r="B247" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C247" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D247" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E247" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F247">
         <v>6480</v>
@@ -6515,16 +6632,16 @@
         <v>47</v>
       </c>
       <c r="B248" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C248" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E248" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F248">
         <v>8820</v>
@@ -6538,16 +6655,16 @@
         <v>48</v>
       </c>
       <c r="B249" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C249" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D249" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F249">
         <v>11520</v>
@@ -6561,16 +6678,16 @@
         <v>49</v>
       </c>
       <c r="B250" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C250" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E250" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F250">
         <v>14580</v>
@@ -6584,22 +6701,1172 @@
         <v>50</v>
       </c>
       <c r="B251" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C251" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F251">
         <v>18000</v>
       </c>
       <c r="G251">
         <v>2376888</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>157</v>
+      </c>
+      <c r="D252" t="s">
+        <v>158</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252">
+        <v>12</v>
+      </c>
+      <c r="G252">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>157</v>
+      </c>
+      <c r="D253" t="s">
+        <v>159</v>
+      </c>
+      <c r="E253" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253">
+        <v>30</v>
+      </c>
+      <c r="G253">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" t="s">
+        <v>157</v>
+      </c>
+      <c r="D254" t="s">
+        <v>160</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254">
+        <v>36</v>
+      </c>
+      <c r="G254">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+      <c r="C255" t="s">
+        <v>157</v>
+      </c>
+      <c r="D255" t="s">
+        <v>161</v>
+      </c>
+      <c r="E255" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255">
+        <v>56</v>
+      </c>
+      <c r="G255">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>17</v>
+      </c>
+      <c r="C256" t="s">
+        <v>157</v>
+      </c>
+      <c r="D256" t="s">
+        <v>162</v>
+      </c>
+      <c r="E256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>90</v>
+      </c>
+      <c r="G256">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" t="s">
+        <v>157</v>
+      </c>
+      <c r="D257" t="s">
+        <v>163</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257">
+        <v>80</v>
+      </c>
+      <c r="G257">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>7</v>
+      </c>
+      <c r="B258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" t="s">
+        <v>157</v>
+      </c>
+      <c r="D258" t="s">
+        <v>164</v>
+      </c>
+      <c r="E258" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258">
+        <v>132</v>
+      </c>
+      <c r="G258">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>8</v>
+      </c>
+      <c r="B259" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" t="s">
+        <v>157</v>
+      </c>
+      <c r="D259" t="s">
+        <v>165</v>
+      </c>
+      <c r="E259" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259">
+        <v>126</v>
+      </c>
+      <c r="G259">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260" t="s">
+        <v>157</v>
+      </c>
+      <c r="D260" t="s">
+        <v>166</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260">
+        <v>182</v>
+      </c>
+      <c r="G260">
+        <v>7112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261" t="s">
+        <v>157</v>
+      </c>
+      <c r="D261" t="s">
+        <v>167</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261">
+        <v>150</v>
+      </c>
+      <c r="G261">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262" t="s">
+        <v>157</v>
+      </c>
+      <c r="D262" t="s">
+        <v>168</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262">
+        <v>147</v>
+      </c>
+      <c r="G262">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>12</v>
+      </c>
+      <c r="B263" t="s">
+        <v>29</v>
+      </c>
+      <c r="C263" t="s">
+        <v>157</v>
+      </c>
+      <c r="D263" t="s">
+        <v>169</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263">
+        <v>120</v>
+      </c>
+      <c r="G263">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>13</v>
+      </c>
+      <c r="B264" t="s">
+        <v>31</v>
+      </c>
+      <c r="C264" t="s">
+        <v>157</v>
+      </c>
+      <c r="D264" t="s">
+        <v>170</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264">
+        <v>108</v>
+      </c>
+      <c r="G264">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>14</v>
+      </c>
+      <c r="B265" t="s">
+        <v>33</v>
+      </c>
+      <c r="C265" t="s">
+        <v>157</v>
+      </c>
+      <c r="D265" t="s">
+        <v>171</v>
+      </c>
+      <c r="E265" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265">
+        <v>240</v>
+      </c>
+      <c r="G265">
+        <v>12616</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>15</v>
+      </c>
+      <c r="B266" t="s">
+        <v>35</v>
+      </c>
+      <c r="C266" t="s">
+        <v>157</v>
+      </c>
+      <c r="D266" t="s">
+        <v>172</v>
+      </c>
+      <c r="E266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266">
+        <v>168</v>
+      </c>
+      <c r="G266">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>16</v>
+      </c>
+      <c r="B267" t="s">
+        <v>37</v>
+      </c>
+      <c r="C267" t="s">
+        <v>157</v>
+      </c>
+      <c r="D267" t="s">
+        <v>173</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267">
+        <v>120</v>
+      </c>
+      <c r="G267">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>17</v>
+      </c>
+      <c r="B268" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" t="s">
+        <v>157</v>
+      </c>
+      <c r="D268" t="s">
+        <v>174</v>
+      </c>
+      <c r="E268" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268">
+        <v>175</v>
+      </c>
+      <c r="G268">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>39</v>
+      </c>
+      <c r="C269" t="s">
+        <v>157</v>
+      </c>
+      <c r="D269" t="s">
+        <v>175</v>
+      </c>
+      <c r="E269" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269">
+        <v>306</v>
+      </c>
+      <c r="G269">
+        <v>20826</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>19</v>
+      </c>
+      <c r="B270" t="s">
+        <v>41</v>
+      </c>
+      <c r="C270" t="s">
+        <v>157</v>
+      </c>
+      <c r="D270" t="s">
+        <v>176</v>
+      </c>
+      <c r="E270" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270">
+        <v>168</v>
+      </c>
+      <c r="G270">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>20</v>
+      </c>
+      <c r="B271" t="s">
+        <v>42</v>
+      </c>
+      <c r="C271" t="s">
+        <v>157</v>
+      </c>
+      <c r="D271" t="s">
+        <v>177</v>
+      </c>
+      <c r="E271" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271">
+        <v>135</v>
+      </c>
+      <c r="G271">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>21</v>
+      </c>
+      <c r="B272" t="s">
+        <v>43</v>
+      </c>
+      <c r="C272" t="s">
+        <v>157</v>
+      </c>
+      <c r="D272" t="s">
+        <v>178</v>
+      </c>
+      <c r="E272" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272">
+        <v>270</v>
+      </c>
+      <c r="G272">
+        <v>15806</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>22</v>
+      </c>
+      <c r="B273" t="s">
+        <v>45</v>
+      </c>
+      <c r="C273" t="s">
+        <v>157</v>
+      </c>
+      <c r="D273" t="s">
+        <v>179</v>
+      </c>
+      <c r="E273" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273">
+        <v>216</v>
+      </c>
+      <c r="G273">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>23</v>
+      </c>
+      <c r="B274" t="s">
+        <v>47</v>
+      </c>
+      <c r="C274" t="s">
+        <v>157</v>
+      </c>
+      <c r="D274" t="s">
+        <v>180</v>
+      </c>
+      <c r="E274" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274">
+        <v>240</v>
+      </c>
+      <c r="G274">
+        <v>12189</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>24</v>
+      </c>
+      <c r="B275" t="s">
+        <v>49</v>
+      </c>
+      <c r="C275" t="s">
+        <v>157</v>
+      </c>
+      <c r="D275" t="s">
+        <v>181</v>
+      </c>
+      <c r="E275" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275">
+        <v>380</v>
+      </c>
+      <c r="G275">
+        <v>32510</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>25</v>
+      </c>
+      <c r="B276" t="s">
+        <v>51</v>
+      </c>
+      <c r="C276" t="s">
+        <v>157</v>
+      </c>
+      <c r="D276" t="s">
+        <v>182</v>
+      </c>
+      <c r="E276" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276">
+        <v>162</v>
+      </c>
+      <c r="G276">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>26</v>
+      </c>
+      <c r="B277" t="s">
+        <v>52</v>
+      </c>
+      <c r="C277" t="s">
+        <v>157</v>
+      </c>
+      <c r="D277" t="s">
+        <v>183</v>
+      </c>
+      <c r="E277" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277">
+        <v>200</v>
+      </c>
+      <c r="G277">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>27</v>
+      </c>
+      <c r="B278" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" t="s">
+        <v>157</v>
+      </c>
+      <c r="D278" t="s">
+        <v>184</v>
+      </c>
+      <c r="E278" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278">
+        <v>224</v>
+      </c>
+      <c r="G278">
+        <v>9245</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>28</v>
+      </c>
+      <c r="B279" t="s">
+        <v>54</v>
+      </c>
+      <c r="C279" t="s">
+        <v>157</v>
+      </c>
+      <c r="D279" t="s">
+        <v>185</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279">
+        <v>250</v>
+      </c>
+      <c r="G279">
+        <v>12256</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>29</v>
+      </c>
+      <c r="B280" t="s">
+        <v>55</v>
+      </c>
+      <c r="C280" t="s">
+        <v>157</v>
+      </c>
+      <c r="D280" t="s">
+        <v>186</v>
+      </c>
+      <c r="E280" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280">
+        <v>252</v>
+      </c>
+      <c r="G280">
+        <v>11723</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>30</v>
+      </c>
+      <c r="B281" t="s">
+        <v>56</v>
+      </c>
+      <c r="C281" t="s">
+        <v>157</v>
+      </c>
+      <c r="D281" t="s">
+        <v>187</v>
+      </c>
+      <c r="E281" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281">
+        <v>15</v>
+      </c>
+      <c r="G281">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>31</v>
+      </c>
+      <c r="B282" t="s">
+        <v>57</v>
+      </c>
+      <c r="C282" t="s">
+        <v>157</v>
+      </c>
+      <c r="D282" t="s">
+        <v>188</v>
+      </c>
+      <c r="E282" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282">
+        <v>45</v>
+      </c>
+      <c r="G282">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>32</v>
+      </c>
+      <c r="B283" t="s">
+        <v>59</v>
+      </c>
+      <c r="C283" t="s">
+        <v>157</v>
+      </c>
+      <c r="D283" t="s">
+        <v>32</v>
+      </c>
+      <c r="E283" t="s">
+        <v>32</v>
+      </c>
+      <c r="F283">
+        <v>60</v>
+      </c>
+      <c r="G283">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>33</v>
+      </c>
+      <c r="B284" t="s">
+        <v>60</v>
+      </c>
+      <c r="C284" t="s">
+        <v>157</v>
+      </c>
+      <c r="D284" t="s">
+        <v>189</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284">
+        <v>75</v>
+      </c>
+      <c r="G284">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>34</v>
+      </c>
+      <c r="B285" t="s">
+        <v>62</v>
+      </c>
+      <c r="C285" t="s">
+        <v>157</v>
+      </c>
+      <c r="D285" t="s">
+        <v>190</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285">
+        <v>90</v>
+      </c>
+      <c r="G285">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>35</v>
+      </c>
+      <c r="B286" t="s">
+        <v>64</v>
+      </c>
+      <c r="C286" t="s">
+        <v>157</v>
+      </c>
+      <c r="D286" t="s">
+        <v>191</v>
+      </c>
+      <c r="E286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>36</v>
+      </c>
+      <c r="B287" t="s">
+        <v>65</v>
+      </c>
+      <c r="C287" t="s">
+        <v>157</v>
+      </c>
+      <c r="D287" t="s">
+        <v>192</v>
+      </c>
+      <c r="E287" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287">
+        <v>64</v>
+      </c>
+      <c r="G287">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>37</v>
+      </c>
+      <c r="B288" t="s">
+        <v>67</v>
+      </c>
+      <c r="C288" t="s">
+        <v>157</v>
+      </c>
+      <c r="D288" t="s">
+        <v>193</v>
+      </c>
+      <c r="E288" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288">
+        <v>96</v>
+      </c>
+      <c r="G288">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>38</v>
+      </c>
+      <c r="B289" t="s">
+        <v>69</v>
+      </c>
+      <c r="C289" t="s">
+        <v>157</v>
+      </c>
+      <c r="D289" t="s">
+        <v>194</v>
+      </c>
+      <c r="E289" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289">
+        <v>128</v>
+      </c>
+      <c r="G289">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>39</v>
+      </c>
+      <c r="B290" t="s">
+        <v>71</v>
+      </c>
+      <c r="C290" t="s">
+        <v>157</v>
+      </c>
+      <c r="D290" t="s">
+        <v>32</v>
+      </c>
+      <c r="E290" t="s">
+        <v>32</v>
+      </c>
+      <c r="F290">
+        <v>160</v>
+      </c>
+      <c r="G290">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>40</v>
+      </c>
+      <c r="B291" t="s">
+        <v>73</v>
+      </c>
+      <c r="C291" t="s">
+        <v>157</v>
+      </c>
+      <c r="D291" t="s">
+        <v>32</v>
+      </c>
+      <c r="E291" t="s">
+        <v>32</v>
+      </c>
+      <c r="F291">
+        <v>192</v>
+      </c>
+      <c r="G291">
+        <v>7737</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>41</v>
+      </c>
+      <c r="B292" t="s">
+        <v>74</v>
+      </c>
+      <c r="C292" t="s">
+        <v>157</v>
+      </c>
+      <c r="D292" t="s">
+        <v>195</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292">
+        <v>105</v>
+      </c>
+      <c r="G292">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>42</v>
+      </c>
+      <c r="B293" t="s">
+        <v>76</v>
+      </c>
+      <c r="C293" t="s">
+        <v>157</v>
+      </c>
+      <c r="D293" t="s">
+        <v>32</v>
+      </c>
+      <c r="E293" t="s">
+        <v>32</v>
+      </c>
+      <c r="F293">
+        <v>224</v>
+      </c>
+      <c r="G293">
+        <v>10593</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>43</v>
+      </c>
+      <c r="B294" t="s">
+        <v>77</v>
+      </c>
+      <c r="C294" t="s">
+        <v>157</v>
+      </c>
+      <c r="D294" t="s">
+        <v>32</v>
+      </c>
+      <c r="E294" t="s">
+        <v>32</v>
+      </c>
+      <c r="F294">
+        <v>256</v>
+      </c>
+      <c r="G294">
+        <v>13897</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>44</v>
+      </c>
+      <c r="B295" t="s">
+        <v>78</v>
+      </c>
+      <c r="C295" t="s">
+        <v>157</v>
+      </c>
+      <c r="D295" t="s">
+        <v>32</v>
+      </c>
+      <c r="E295" t="s">
+        <v>32</v>
+      </c>
+      <c r="F295">
+        <v>288</v>
+      </c>
+      <c r="G295">
+        <v>17649</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>79</v>
+      </c>
+      <c r="C296" t="s">
+        <v>157</v>
+      </c>
+      <c r="D296" t="s">
+        <v>32</v>
+      </c>
+      <c r="E296" t="s">
+        <v>32</v>
+      </c>
+      <c r="F296">
+        <v>320</v>
+      </c>
+      <c r="G296">
+        <v>21849</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>46</v>
+      </c>
+      <c r="B297" t="s">
+        <v>80</v>
+      </c>
+      <c r="C297" t="s">
+        <v>157</v>
+      </c>
+      <c r="D297" t="s">
+        <v>32</v>
+      </c>
+      <c r="E297" t="s">
+        <v>32</v>
+      </c>
+      <c r="F297">
+        <v>216</v>
+      </c>
+      <c r="G297">
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>47</v>
+      </c>
+      <c r="B298" t="s">
+        <v>81</v>
+      </c>
+      <c r="C298" t="s">
+        <v>157</v>
+      </c>
+      <c r="D298" t="s">
+        <v>32</v>
+      </c>
+      <c r="E298" t="s">
+        <v>32</v>
+      </c>
+      <c r="F298">
+        <v>252</v>
+      </c>
+      <c r="G298">
+        <v>13618</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>48</v>
+      </c>
+      <c r="B299" t="s">
+        <v>82</v>
+      </c>
+      <c r="C299" t="s">
+        <v>157</v>
+      </c>
+      <c r="D299" t="s">
+        <v>32</v>
+      </c>
+      <c r="E299" t="s">
+        <v>32</v>
+      </c>
+      <c r="F299">
+        <v>288</v>
+      </c>
+      <c r="G299">
+        <v>17866</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>49</v>
+      </c>
+      <c r="B300" t="s">
+        <v>83</v>
+      </c>
+      <c r="C300" t="s">
+        <v>157</v>
+      </c>
+      <c r="D300" t="s">
+        <v>32</v>
+      </c>
+      <c r="E300" t="s">
+        <v>32</v>
+      </c>
+      <c r="F300">
+        <v>324</v>
+      </c>
+      <c r="G300">
+        <v>22690</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>50</v>
+      </c>
+      <c r="B301" t="s">
+        <v>84</v>
+      </c>
+      <c r="C301" t="s">
+        <v>157</v>
+      </c>
+      <c r="D301" t="s">
+        <v>32</v>
+      </c>
+      <c r="E301" t="s">
+        <v>32</v>
+      </c>
+      <c r="F301">
+        <v>360</v>
+      </c>
+      <c r="G301">
+        <v>28090</v>
       </c>
     </row>
   </sheetData>
